--- a/ExpDevis.xlsx
+++ b/ExpDevis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="225">
   <si>
     <t>Date devis</t>
   </si>
@@ -3421,13 +3421,19 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>4769</v>
+        <v>4709</v>
       </c>
       <c r="C67" t="s">
         <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="F67" t="s">
+        <v>122</v>
+      </c>
+      <c r="G67" t="s">
+        <v>147</v>
       </c>
       <c r="H67" t="s">
         <v>72</v>

--- a/ExpDevis.xlsx
+++ b/ExpDevis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="234">
   <si>
     <t>Date devis</t>
   </si>
@@ -481,6 +481,9 @@
     <t>186</t>
   </si>
   <si>
+    <t>5874</t>
+  </si>
+  <si>
     <t>19/01/2022</t>
   </si>
   <si>
@@ -553,6 +556,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>00/01/1900</t>
+  </si>
+  <si>
     <t>350</t>
   </si>
   <si>
@@ -596,6 +602,27 @@
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>3105</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>2711</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>610</t>
   </si>
   <si>
     <t>155</t>
@@ -1046,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1125,19 +1152,19 @@
         <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2">
-        <v>710</v>
+        <v>181</v>
+      </c>
+      <c r="M2" t="s">
+        <v>196</v>
       </c>
       <c r="N2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="O2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1169,19 +1196,19 @@
         <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L3" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="M3" t="s">
+        <v>72</v>
       </c>
       <c r="N3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="O3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1207,25 +1234,25 @@
         <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L4" t="s">
-        <v>181</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="M4" t="s">
+        <v>72</v>
       </c>
       <c r="N4" t="s">
         <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1250,8 +1277,8 @@
       <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="M5">
-        <v>0</v>
+      <c r="M5" t="s">
+        <v>72</v>
       </c>
       <c r="N5" t="s">
         <v>72</v>
@@ -1288,14 +1315,14 @@
       <c r="L6" t="s">
         <v>72</v>
       </c>
-      <c r="M6">
-        <v>3105</v>
+      <c r="M6" t="s">
+        <v>197</v>
       </c>
       <c r="N6" t="s">
         <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1321,25 +1348,25 @@
         <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="M7" t="s">
+        <v>72</v>
       </c>
       <c r="N7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="O7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1365,10 +1392,10 @@
         <v>149</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K8" t="s">
         <v>72</v>
@@ -1376,14 +1403,14 @@
       <c r="L8" t="s">
         <v>72</v>
       </c>
-      <c r="M8">
-        <v>0</v>
+      <c r="M8" t="s">
+        <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O8" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1409,19 +1436,19 @@
         <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L9" t="s">
-        <v>183</v>
-      </c>
-      <c r="M9">
-        <v>971</v>
+        <v>185</v>
+      </c>
+      <c r="M9" t="s">
+        <v>198</v>
       </c>
       <c r="N9" t="s">
         <v>72</v>
       </c>
       <c r="O9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1447,19 +1474,19 @@
         <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L10" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10">
-        <v>2711</v>
+        <v>186</v>
+      </c>
+      <c r="M10" t="s">
+        <v>199</v>
       </c>
       <c r="N10" t="s">
         <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1491,19 +1518,19 @@
         <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L11" t="s">
-        <v>185</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="M11" t="s">
+        <v>72</v>
       </c>
       <c r="N11" t="s">
         <v>72</v>
       </c>
       <c r="O11" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1532,22 +1559,22 @@
         <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L12" t="s">
-        <v>186</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="M12" t="s">
+        <v>72</v>
       </c>
       <c r="N12" t="s">
         <v>72</v>
       </c>
       <c r="O12" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1572,8 +1599,8 @@
       <c r="L13" t="s">
         <v>72</v>
       </c>
-      <c r="M13">
-        <v>0</v>
+      <c r="M13" t="s">
+        <v>72</v>
       </c>
       <c r="N13" t="s">
         <v>72</v>
@@ -1604,8 +1631,8 @@
       <c r="L14" t="s">
         <v>72</v>
       </c>
-      <c r="M14">
-        <v>0</v>
+      <c r="M14" t="s">
+        <v>72</v>
       </c>
       <c r="N14" t="s">
         <v>72</v>
@@ -1636,8 +1663,8 @@
       <c r="L15" t="s">
         <v>72</v>
       </c>
-      <c r="M15">
-        <v>0</v>
+      <c r="M15" t="s">
+        <v>72</v>
       </c>
       <c r="N15" t="s">
         <v>72</v>
@@ -1669,19 +1696,19 @@
         <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>187</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="M16" t="s">
+        <v>72</v>
       </c>
       <c r="N16" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="O16" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1706,8 +1733,8 @@
       <c r="L17" t="s">
         <v>72</v>
       </c>
-      <c r="M17">
-        <v>0</v>
+      <c r="M17" t="s">
+        <v>72</v>
       </c>
       <c r="N17" t="s">
         <v>72</v>
@@ -1738,8 +1765,8 @@
       <c r="L18" t="s">
         <v>72</v>
       </c>
-      <c r="M18">
-        <v>0</v>
+      <c r="M18" t="s">
+        <v>72</v>
       </c>
       <c r="N18" t="s">
         <v>72</v>
@@ -1774,22 +1801,22 @@
         <v>121</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="M19" t="s">
+        <v>72</v>
       </c>
       <c r="N19" t="s">
         <v>72</v>
       </c>
       <c r="O19" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1814,8 +1841,8 @@
       <c r="L20" t="s">
         <v>72</v>
       </c>
-      <c r="M20">
-        <v>0</v>
+      <c r="M20" t="s">
+        <v>72</v>
       </c>
       <c r="N20" t="s">
         <v>72</v>
@@ -1846,8 +1873,8 @@
       <c r="L21" t="s">
         <v>72</v>
       </c>
-      <c r="M21">
-        <v>0</v>
+      <c r="M21" t="s">
+        <v>72</v>
       </c>
       <c r="N21" t="s">
         <v>72</v>
@@ -1878,8 +1905,8 @@
       <c r="L22" t="s">
         <v>72</v>
       </c>
-      <c r="M22">
-        <v>0</v>
+      <c r="M22" t="s">
+        <v>72</v>
       </c>
       <c r="N22" t="s">
         <v>72</v>
@@ -1910,8 +1937,8 @@
       <c r="L23" t="s">
         <v>72</v>
       </c>
-      <c r="M23">
-        <v>0</v>
+      <c r="M23" t="s">
+        <v>72</v>
       </c>
       <c r="N23" t="s">
         <v>72</v>
@@ -1942,8 +1969,8 @@
       <c r="L24" t="s">
         <v>72</v>
       </c>
-      <c r="M24">
-        <v>0</v>
+      <c r="M24" t="s">
+        <v>72</v>
       </c>
       <c r="N24" t="s">
         <v>72</v>
@@ -1974,8 +2001,8 @@
       <c r="L25" t="s">
         <v>72</v>
       </c>
-      <c r="M25">
-        <v>0</v>
+      <c r="M25" t="s">
+        <v>72</v>
       </c>
       <c r="N25" t="s">
         <v>72</v>
@@ -2012,8 +2039,8 @@
       <c r="L26" t="s">
         <v>72</v>
       </c>
-      <c r="M26">
-        <v>0</v>
+      <c r="M26" t="s">
+        <v>72</v>
       </c>
       <c r="N26" t="s">
         <v>72</v>
@@ -2045,22 +2072,22 @@
         <v>153</v>
       </c>
       <c r="J27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>189</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
+        <v>191</v>
+      </c>
+      <c r="M27" t="s">
+        <v>72</v>
       </c>
       <c r="N27" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="O27" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2086,10 +2113,10 @@
         <v>91</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s">
         <v>72</v>
@@ -2097,8 +2124,8 @@
       <c r="L28" t="s">
         <v>72</v>
       </c>
-      <c r="M28">
-        <v>0</v>
+      <c r="M28" t="s">
+        <v>72</v>
       </c>
       <c r="N28" t="s">
         <v>72</v>
@@ -2129,8 +2156,8 @@
       <c r="L29" t="s">
         <v>72</v>
       </c>
-      <c r="M29">
-        <v>0</v>
+      <c r="M29" t="s">
+        <v>72</v>
       </c>
       <c r="N29" t="s">
         <v>72</v>
@@ -2161,8 +2188,8 @@
       <c r="L30" t="s">
         <v>72</v>
       </c>
-      <c r="M30">
-        <v>0</v>
+      <c r="M30" t="s">
+        <v>72</v>
       </c>
       <c r="N30" t="s">
         <v>72</v>
@@ -2193,8 +2220,8 @@
       <c r="L31" t="s">
         <v>72</v>
       </c>
-      <c r="M31">
-        <v>0</v>
+      <c r="M31" t="s">
+        <v>72</v>
       </c>
       <c r="N31" t="s">
         <v>72</v>
@@ -2226,22 +2253,22 @@
         <v>94</v>
       </c>
       <c r="J32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s">
-        <v>190</v>
-      </c>
-      <c r="M32">
-        <v>616</v>
+        <v>192</v>
+      </c>
+      <c r="M32" t="s">
+        <v>200</v>
       </c>
       <c r="N32" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="O32" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2266,8 +2293,8 @@
       <c r="L33" t="s">
         <v>72</v>
       </c>
-      <c r="M33">
-        <v>0</v>
+      <c r="M33" t="s">
+        <v>72</v>
       </c>
       <c r="N33" t="s">
         <v>72</v>
@@ -2298,8 +2325,8 @@
       <c r="L34" t="s">
         <v>72</v>
       </c>
-      <c r="M34">
-        <v>0</v>
+      <c r="M34" t="s">
+        <v>72</v>
       </c>
       <c r="N34" t="s">
         <v>72</v>
@@ -2330,8 +2357,8 @@
       <c r="L35" t="s">
         <v>72</v>
       </c>
-      <c r="M35">
-        <v>0</v>
+      <c r="M35" t="s">
+        <v>72</v>
       </c>
       <c r="N35" t="s">
         <v>72</v>
@@ -2363,19 +2390,19 @@
         <v>95</v>
       </c>
       <c r="K36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L36" t="s">
-        <v>183</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="M36" t="s">
+        <v>72</v>
       </c>
       <c r="N36" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="O36" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2400,8 +2427,8 @@
       <c r="L37" t="s">
         <v>72</v>
       </c>
-      <c r="M37">
-        <v>0</v>
+      <c r="M37" t="s">
+        <v>72</v>
       </c>
       <c r="N37" t="s">
         <v>72</v>
@@ -2432,8 +2459,8 @@
       <c r="L38" t="s">
         <v>72</v>
       </c>
-      <c r="M38">
-        <v>0</v>
+      <c r="M38" t="s">
+        <v>72</v>
       </c>
       <c r="N38" t="s">
         <v>72</v>
@@ -2476,14 +2503,14 @@
       <c r="L39" t="s">
         <v>72</v>
       </c>
-      <c r="M39">
-        <v>43</v>
+      <c r="M39" t="s">
+        <v>201</v>
       </c>
       <c r="N39" t="s">
         <v>72</v>
       </c>
       <c r="O39" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2508,8 +2535,8 @@
       <c r="L40" t="s">
         <v>72</v>
       </c>
-      <c r="M40">
-        <v>0</v>
+      <c r="M40" t="s">
+        <v>72</v>
       </c>
       <c r="N40" t="s">
         <v>72</v>
@@ -2540,8 +2567,8 @@
       <c r="L41" t="s">
         <v>72</v>
       </c>
-      <c r="M41">
-        <v>0</v>
+      <c r="M41" t="s">
+        <v>72</v>
       </c>
       <c r="N41" t="s">
         <v>72</v>
@@ -2572,8 +2599,8 @@
       <c r="L42" t="s">
         <v>72</v>
       </c>
-      <c r="M42">
-        <v>0</v>
+      <c r="M42" t="s">
+        <v>72</v>
       </c>
       <c r="N42" t="s">
         <v>72</v>
@@ -2604,8 +2631,8 @@
       <c r="L43" t="s">
         <v>72</v>
       </c>
-      <c r="M43">
-        <v>0</v>
+      <c r="M43" t="s">
+        <v>72</v>
       </c>
       <c r="N43" t="s">
         <v>72</v>
@@ -2636,8 +2663,8 @@
       <c r="L44" t="s">
         <v>72</v>
       </c>
-      <c r="M44">
-        <v>0</v>
+      <c r="M44" t="s">
+        <v>72</v>
       </c>
       <c r="N44" t="s">
         <v>72</v>
@@ -2668,8 +2695,8 @@
       <c r="L45" t="s">
         <v>72</v>
       </c>
-      <c r="M45">
-        <v>0</v>
+      <c r="M45" t="s">
+        <v>72</v>
       </c>
       <c r="N45" t="s">
         <v>72</v>
@@ -2700,8 +2727,8 @@
       <c r="L46" t="s">
         <v>72</v>
       </c>
-      <c r="M46">
-        <v>0</v>
+      <c r="M46" t="s">
+        <v>72</v>
       </c>
       <c r="N46" t="s">
         <v>72</v>
@@ -2733,25 +2760,25 @@
         <v>105</v>
       </c>
       <c r="I47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J47" t="s">
         <v>119</v>
       </c>
       <c r="K47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s">
-        <v>191</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
+        <v>193</v>
+      </c>
+      <c r="M47" t="s">
+        <v>72</v>
       </c>
       <c r="N47" t="s">
         <v>72</v>
       </c>
       <c r="O47" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2780,22 +2807,22 @@
         <v>119</v>
       </c>
       <c r="J48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L48" t="s">
-        <v>184</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="M48" t="s">
+        <v>72</v>
       </c>
       <c r="N48" t="s">
         <v>72</v>
       </c>
       <c r="O48" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2824,22 +2851,22 @@
         <v>120</v>
       </c>
       <c r="J49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L49" t="s">
-        <v>192</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="M49" t="s">
+        <v>72</v>
       </c>
       <c r="N49" t="s">
         <v>72</v>
       </c>
       <c r="O49" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2870,14 +2897,14 @@
       <c r="L50" t="s">
         <v>72</v>
       </c>
-      <c r="M50">
-        <v>0</v>
+      <c r="M50" t="s">
+        <v>72</v>
       </c>
       <c r="N50" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O50" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2902,8 +2929,8 @@
       <c r="L51" t="s">
         <v>72</v>
       </c>
-      <c r="M51">
-        <v>0</v>
+      <c r="M51" t="s">
+        <v>72</v>
       </c>
       <c r="N51" t="s">
         <v>72</v>
@@ -2934,8 +2961,8 @@
       <c r="L52" t="s">
         <v>72</v>
       </c>
-      <c r="M52">
-        <v>0</v>
+      <c r="M52" t="s">
+        <v>72</v>
       </c>
       <c r="N52" t="s">
         <v>72</v>
@@ -2966,8 +2993,8 @@
       <c r="L53" t="s">
         <v>72</v>
       </c>
-      <c r="M53">
-        <v>0</v>
+      <c r="M53" t="s">
+        <v>72</v>
       </c>
       <c r="N53" t="s">
         <v>72</v>
@@ -2998,8 +3025,8 @@
       <c r="L54" t="s">
         <v>72</v>
       </c>
-      <c r="M54">
-        <v>0</v>
+      <c r="M54" t="s">
+        <v>72</v>
       </c>
       <c r="N54" t="s">
         <v>72</v>
@@ -3030,8 +3057,8 @@
       <c r="L55" t="s">
         <v>72</v>
       </c>
-      <c r="M55">
-        <v>0</v>
+      <c r="M55" t="s">
+        <v>72</v>
       </c>
       <c r="N55" t="s">
         <v>72</v>
@@ -3063,19 +3090,19 @@
         <v>112</v>
       </c>
       <c r="K56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L56" t="s">
-        <v>184</v>
-      </c>
-      <c r="M56">
-        <v>610</v>
+        <v>186</v>
+      </c>
+      <c r="M56" t="s">
+        <v>202</v>
       </c>
       <c r="N56" t="s">
         <v>72</v>
       </c>
       <c r="O56" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3101,19 +3128,19 @@
         <v>72</v>
       </c>
       <c r="K57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L57" t="s">
-        <v>193</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
+        <v>195</v>
+      </c>
+      <c r="M57" t="s">
+        <v>72</v>
       </c>
       <c r="N57" t="s">
         <v>72</v>
       </c>
       <c r="O57" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3138,8 +3165,8 @@
       <c r="L58" t="s">
         <v>72</v>
       </c>
-      <c r="M58">
-        <v>0</v>
+      <c r="M58" t="s">
+        <v>72</v>
       </c>
       <c r="N58" t="s">
         <v>72</v>
@@ -3170,8 +3197,8 @@
       <c r="L59" t="s">
         <v>72</v>
       </c>
-      <c r="M59">
-        <v>0</v>
+      <c r="M59" t="s">
+        <v>72</v>
       </c>
       <c r="N59" t="s">
         <v>72</v>
@@ -3202,8 +3229,8 @@
       <c r="L60" t="s">
         <v>72</v>
       </c>
-      <c r="M60">
-        <v>0</v>
+      <c r="M60" t="s">
+        <v>72</v>
       </c>
       <c r="N60" t="s">
         <v>72</v>
@@ -3234,8 +3261,8 @@
       <c r="L61" t="s">
         <v>72</v>
       </c>
-      <c r="M61">
-        <v>0</v>
+      <c r="M61" t="s">
+        <v>72</v>
       </c>
       <c r="N61" t="s">
         <v>72</v>
@@ -3272,8 +3299,8 @@
       <c r="L62" t="s">
         <v>72</v>
       </c>
-      <c r="M62">
-        <v>0</v>
+      <c r="M62" t="s">
+        <v>72</v>
       </c>
       <c r="N62" t="s">
         <v>72</v>
@@ -3304,8 +3331,8 @@
       <c r="L63" t="s">
         <v>72</v>
       </c>
-      <c r="M63">
-        <v>0</v>
+      <c r="M63" t="s">
+        <v>72</v>
       </c>
       <c r="N63" t="s">
         <v>72</v>
@@ -3336,8 +3363,8 @@
       <c r="L64" t="s">
         <v>72</v>
       </c>
-      <c r="M64">
-        <v>0</v>
+      <c r="M64" t="s">
+        <v>72</v>
       </c>
       <c r="N64" t="s">
         <v>72</v>
@@ -3368,8 +3395,8 @@
       <c r="L65" t="s">
         <v>72</v>
       </c>
-      <c r="M65">
-        <v>0</v>
+      <c r="M65" t="s">
+        <v>72</v>
       </c>
       <c r="N65" t="s">
         <v>72</v>
@@ -3406,8 +3433,8 @@
       <c r="L66" t="s">
         <v>72</v>
       </c>
-      <c r="M66">
-        <v>0</v>
+      <c r="M66" t="s">
+        <v>72</v>
       </c>
       <c r="N66" t="s">
         <v>72</v>
@@ -3436,7 +3463,13 @@
         <v>147</v>
       </c>
       <c r="H67" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="I67" t="s">
+        <v>41</v>
+      </c>
+      <c r="J67" t="s">
+        <v>164</v>
       </c>
       <c r="K67" t="s">
         <v>72</v>
@@ -3444,14 +3477,58 @@
       <c r="L67" t="s">
         <v>72</v>
       </c>
-      <c r="M67">
-        <v>0</v>
+      <c r="M67" t="s">
+        <v>72</v>
       </c>
       <c r="N67" t="s">
         <v>72</v>
       </c>
       <c r="O67" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68">
+        <v>4709</v>
+      </c>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" t="s">
+        <v>155</v>
+      </c>
+      <c r="I68" t="s">
+        <v>41</v>
+      </c>
+      <c r="J68" t="s">
+        <v>164</v>
+      </c>
+      <c r="K68" t="s">
+        <v>180</v>
+      </c>
+      <c r="L68" t="s">
+        <v>180</v>
+      </c>
+      <c r="M68" t="s">
+        <v>180</v>
+      </c>
+      <c r="N68" t="s">
+        <v>180</v>
+      </c>
+      <c r="O68" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/ExpDevis.xlsx
+++ b/ExpDevis.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="121">
   <si>
     <t>Date devis</t>
   </si>
   <si>
-    <t>Nï¿½ devis</t>
+    <t>N° devis</t>
   </si>
   <si>
     <t>Client</t>
@@ -34,7 +34,7 @@
     <t>Date commande</t>
   </si>
   <si>
-    <t>Nï¿½ commande</t>
+    <t>N° commande</t>
   </si>
   <si>
     <t>Montant HT Commande</t>
@@ -154,7 +154,19 @@
     <t>31/03/2022</t>
   </si>
   <si>
-    <t>01/04/2022</t>
+    <t>11/04/2022</t>
+  </si>
+  <si>
+    <t>12/04/2022</t>
+  </si>
+  <si>
+    <t>14/04/2022</t>
+  </si>
+  <si>
+    <t>19/04/2022</t>
+  </si>
+  <si>
+    <t>21/04/2022</t>
   </si>
   <si>
     <t>ROLLS-ROYCE TECHNICAL SUPPORT</t>
@@ -181,7 +193,7 @@
     <t>HOP!</t>
   </si>
   <si>
-    <t xml:space="preserve">DMAï¿½ </t>
+    <t xml:space="preserve">DMAé </t>
   </si>
   <si>
     <t>ROYAL AIR MAROC</t>
@@ -193,7 +205,7 @@
     <t>TARMAC AEROSAVE</t>
   </si>
   <si>
-    <t>Direction Gï¿½nï¿½rale de l'Armement</t>
+    <t>Direction Générale de l'Armement</t>
   </si>
   <si>
     <t>SPIE INDUSTRIE &amp; TERTIAIRE</t>
@@ -223,6 +235,12 @@
     <t>CORSAIR INTERNATIONAL</t>
   </si>
   <si>
+    <t>EMBRAER AVIATION INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>Airbus Transport International</t>
+  </si>
+  <si>
     <t>ASI</t>
   </si>
   <si>
@@ -253,9 +271,6 @@
     <t>08/04/2022</t>
   </si>
   <si>
-    <t>09/04/2022</t>
-  </si>
-  <si>
     <t>2022-004</t>
   </si>
   <si>
@@ -322,6 +337,9 @@
     <t>2022-038</t>
   </si>
   <si>
+    <t>2022-049</t>
+  </si>
+  <si>
     <t>2022-036</t>
   </si>
   <si>
@@ -337,37 +355,28 @@
     <t>2022-048</t>
   </si>
   <si>
+    <t>2022-050</t>
+  </si>
+  <si>
     <t>19/01/2022</t>
   </si>
   <si>
-    <t>11/04/2022</t>
-  </si>
-  <si>
     <t>04/04/2022</t>
   </si>
   <si>
     <t>18/03/2022</t>
   </si>
   <si>
-    <t>15/03/2022</t>
+    <t>06/04/2022</t>
+  </si>
+  <si>
+    <t>21/02/2022</t>
   </si>
   <si>
     <t>25/03/2022</t>
   </si>
   <si>
-    <t>06/04/2022</t>
-  </si>
-  <si>
-    <t>09/03/2022</t>
-  </si>
-  <si>
-    <t>21/02/2022</t>
-  </si>
-  <si>
     <t>23/03/2022</t>
-  </si>
-  <si>
-    <t>14/04/2022</t>
   </si>
 </sst>
 </file>
@@ -725,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,10 +795,10 @@
         <v>4704</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>3238</v>
@@ -798,10 +807,16 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>3238</v>
+      </c>
+      <c r="I2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" t="s">
+        <v>114</v>
       </c>
       <c r="K2">
         <v>7</v>
@@ -827,7 +842,7 @@
         <v>4705</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>660</v>
@@ -836,16 +851,16 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H3">
         <v>660</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -871,22 +886,22 @@
         <v>4706</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>1434</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H4">
         <v>1434</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -915,7 +930,7 @@
         <v>4707</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -947,16 +962,16 @@
         <v>4708</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>4303</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H6">
         <v>4303</v>
@@ -985,25 +1000,25 @@
         <v>4709</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>3180</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <v>3180</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>37.5</v>
@@ -1015,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4765.1</v>
+        <v>5495.9</v>
       </c>
       <c r="O7">
-        <v>-3460.1</v>
+        <v>-4190.9</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1029,7 +1044,7 @@
         <v>4710</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>17687</v>
@@ -1038,16 +1053,16 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H8">
         <v>6180</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1073,16 +1088,16 @@
         <v>4711</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>4144</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H9">
         <v>4144</v>
@@ -1111,7 +1126,7 @@
         <v>4712</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>5541</v>
@@ -1120,7 +1135,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H10">
         <v>5541</v>
@@ -1149,7 +1164,7 @@
         <v>4713</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>660</v>
@@ -1158,7 +1173,7 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H11">
         <v>660</v>
@@ -1167,7 +1182,7 @@
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K11">
         <v>4.75</v>
@@ -1193,16 +1208,16 @@
         <v>4714</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>4683.5</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H12">
         <v>4683.5</v>
@@ -1237,7 +1252,7 @@
         <v>4715</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1269,7 +1284,7 @@
         <v>4716</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>6546</v>
@@ -1301,7 +1316,7 @@
         <v>4717</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>180</v>
@@ -1333,16 +1348,16 @@
         <v>4718</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>1830</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H16">
         <v>1740</v>
@@ -1371,7 +1386,7 @@
         <v>4719</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>200</v>
@@ -1403,7 +1418,7 @@
         <v>4720</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>1520</v>
@@ -1435,7 +1450,7 @@
         <v>4721</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>1197</v>
@@ -1444,16 +1459,16 @@
         <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H19">
         <v>737</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K19">
         <v>9.5</v>
@@ -1479,7 +1494,7 @@
         <v>4722</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -1511,7 +1526,7 @@
         <v>4723</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>180</v>
@@ -1543,7 +1558,7 @@
         <v>4724</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>720</v>
@@ -1575,7 +1590,7 @@
         <v>4725</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>17920</v>
@@ -1607,7 +1622,7 @@
         <v>4726</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>8628.200000000001</v>
@@ -1639,7 +1654,7 @@
         <v>4727</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>2300</v>
@@ -1671,7 +1686,7 @@
         <v>4728</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E26">
         <v>6771</v>
@@ -1680,10 +1695,10 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H26">
-        <v>2700</v>
+        <v>6771</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1698,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>2700</v>
+        <v>6771</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1709,7 +1724,7 @@
         <v>4729</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>3180</v>
@@ -1718,13 +1733,13 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H27">
         <v>2650</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K27">
         <v>26.25</v>
@@ -1750,25 +1765,25 @@
         <v>4730</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>1200</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H28">
         <v>1200</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1794,7 +1809,7 @@
         <v>4731</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>20580</v>
@@ -1826,7 +1841,7 @@
         <v>4732</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1858,7 +1873,7 @@
         <v>4733</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>90</v>
@@ -1890,22 +1905,22 @@
         <v>4734</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E32">
         <v>8717</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H32">
         <v>8717</v>
       </c>
       <c r="J32" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>15</v>
@@ -1931,7 +1946,7 @@
         <v>4735</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1963,7 +1978,7 @@
         <v>4736</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1995,7 +2010,7 @@
         <v>4737</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2027,7 +2042,7 @@
         <v>4738</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E36">
         <v>1915</v>
@@ -2036,7 +2051,7 @@
         <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H36">
         <v>1915</v>
@@ -2065,7 +2080,7 @@
         <v>4739</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E37">
         <v>5885</v>
@@ -2097,7 +2112,7 @@
         <v>4740</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>4476</v>
@@ -2129,7 +2144,7 @@
         <v>4741</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E39">
         <v>185</v>
@@ -2138,7 +2153,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H39">
         <v>186</v>
@@ -2147,7 +2162,7 @@
         <v>43</v>
       </c>
       <c r="J39" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2156,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <v>43</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
       </c>
       <c r="O39">
         <v>143</v>
@@ -2173,7 +2188,7 @@
         <v>4742</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>7963</v>
@@ -2205,7 +2220,7 @@
         <v>4743</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E41">
         <v>1257</v>
@@ -2237,7 +2252,7 @@
         <v>4744</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>707</v>
@@ -2269,7 +2284,7 @@
         <v>4745</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E43">
         <v>1175</v>
@@ -2301,7 +2316,7 @@
         <v>4746</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E44">
         <v>1175</v>
@@ -2333,7 +2348,7 @@
         <v>4747</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>2365</v>
@@ -2365,7 +2380,7 @@
         <v>4748</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E46">
         <v>67796</v>
@@ -2397,7 +2412,7 @@
         <v>4749</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E47">
         <v>460</v>
@@ -2406,16 +2421,16 @@
         <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H47">
         <v>460</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J47" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K47">
         <v>2.5</v>
@@ -2441,7 +2456,7 @@
         <v>4750</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E48">
         <v>385</v>
@@ -2450,16 +2465,16 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H48">
         <v>385</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K48">
         <v>3.5</v>
@@ -2485,7 +2500,7 @@
         <v>4751</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E49">
         <v>385</v>
@@ -2494,16 +2509,16 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H49">
         <v>385</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -2529,34 +2544,34 @@
         <v>4752</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H50">
         <v>3180</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="N50">
         <v>730.8</v>
       </c>
       <c r="O50">
-        <v>2449.2</v>
+        <v>926.2</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2567,13 +2582,19 @@
         <v>4753</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E51">
-        <v>14128</v>
+        <v>15728</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" t="s">
+        <v>107</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>15728</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -2588,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>15728</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2599,7 +2620,7 @@
         <v>4754</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E52">
         <v>1350</v>
@@ -2631,7 +2652,7 @@
         <v>4755</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E53">
         <v>825</v>
@@ -2663,7 +2684,7 @@
         <v>4756</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>1495</v>
@@ -2695,7 +2716,7 @@
         <v>4757</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E55">
         <v>2750</v>
@@ -2727,7 +2748,7 @@
         <v>4758</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E56">
         <v>2396</v>
@@ -2736,7 +2757,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H56">
         <v>2396</v>
@@ -2765,7 +2786,7 @@
         <v>4759</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2774,7 +2795,7 @@
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2803,7 +2824,7 @@
         <v>4760</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E58">
         <v>385</v>
@@ -2835,7 +2856,7 @@
         <v>4761</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2867,7 +2888,7 @@
         <v>4762</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E60">
         <v>3021</v>
@@ -2899,7 +2920,7 @@
         <v>4763</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2931,16 +2952,16 @@
         <v>4764</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E62">
         <v>3180</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H62">
         <v>3180</v>
@@ -2969,7 +2990,7 @@
         <v>4765</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3001,7 +3022,10 @@
         <v>4766</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3033,10 +3057,13 @@
         <v>4767</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="D65" t="s">
+        <v>75</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>3005</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3065,7 +3092,7 @@
         <v>4768</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3074,7 +3101,7 @@
         <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3100,28 +3127,16 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>4709</v>
+        <v>4769</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E67">
-        <v>3180</v>
-      </c>
-      <c r="F67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>3180</v>
-      </c>
-      <c r="I67" t="s">
-        <v>41</v>
-      </c>
-      <c r="J67" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3144,31 +3159,235 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>4709</v>
+        <v>4770</v>
       </c>
       <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68">
+        <v>2475</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69">
+        <v>4771</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>385</v>
+      </c>
+      <c r="F69" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69">
+        <v>385</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70">
+        <v>4772</v>
+      </c>
+      <c r="C70" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70">
+        <v>40176</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71">
+        <v>4773</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
         <v>49</v>
       </c>
-      <c r="D68" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68">
-        <v>20320</v>
-      </c>
-      <c r="F68" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s">
-        <v>106</v>
-      </c>
-      <c r="H68">
-        <v>20320</v>
-      </c>
-      <c r="I68" t="s">
-        <v>111</v>
-      </c>
-      <c r="J68" t="s">
-        <v>117</v>
+      <c r="G71" t="s">
+        <v>113</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72">
+        <v>4774</v>
+      </c>
+      <c r="C72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73">
+        <v>4775</v>
+      </c>
+      <c r="C73" t="s">
+        <v>65</v>
+      </c>
+      <c r="E73">
+        <v>5091</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74">
+        <v>4776</v>
+      </c>
+      <c r="C74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
